--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/junshepard/library/containers/com.microsoft.excel/data/state-eps-data-repository/mn/trans/syvbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED753D61-EA62-244C-B40E-707970476310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846A430-E998-A74B-A2F2-596EE06A205B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="2380" windowWidth="16360" windowHeight="14480" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11320" yWindow="2260" windowWidth="16360" windowHeight="14480" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="0" yWindow="680" windowWidth="19700" windowHeight="11580" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
@@ -4360,6 +4360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="142" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4369,7 +4370,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="142" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="D19">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6294,7 +6294,7 @@
       <c r="D12">
         <v>8971212.6459999997</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="69">
         <v>4869416.5039999997</v>
       </c>
       <c r="F12">
@@ -6317,7 +6317,7 @@
       <c r="D13">
         <v>2586744</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="69">
         <v>9405890</v>
       </c>
       <c r="F13">
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="18">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="E4">
         <f>Misc!D19*5</f>
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <f>Misc!E19*5</f>
@@ -79811,8 +79811,8 @@
     <col min="20" max="20" width="10.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="21" max="34" width="10.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="9.1640625" style="38" customWidth="1"/>
-    <col min="41" max="16384" width="9.1640625" style="38"/>
+    <col min="36" max="41" width="9.1640625" style="38" customWidth="1"/>
+    <col min="42" max="16384" width="9.1640625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1" thickBot="1">
@@ -83115,7 +83115,7 @@
         <v>11961568</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="71" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="1:35" s="72" customFormat="1" ht="12.75" customHeight="1">
       <c r="A35" s="94" t="s">
         <v>963</v>
       </c>
@@ -83149,7 +83149,7 @@
       <c r="AC35" s="54"/>
       <c r="AE35" s="55"/>
     </row>
-    <row r="36" spans="1:35" s="71" customFormat="1" ht="12.75" customHeight="1">
+    <row r="36" spans="1:35" s="72" customFormat="1" ht="12.75" customHeight="1">
       <c r="A36" s="89"/>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -83169,7 +83169,7 @@
       <c r="Q36" s="96"/>
       <c r="R36" s="96"/>
     </row>
-    <row r="37" spans="1:35" s="69" customFormat="1" ht="25.5" customHeight="1">
+    <row r="37" spans="1:35" s="70" customFormat="1" ht="25.5" customHeight="1">
       <c r="A37" s="97" t="s">
         <v>964</v>
       </c>
@@ -83191,7 +83191,7 @@
       <c r="Q37" s="76"/>
       <c r="R37" s="76"/>
     </row>
-    <row r="38" spans="1:35" s="69" customFormat="1" ht="25.5" customHeight="1">
+    <row r="38" spans="1:35" s="70" customFormat="1" ht="25.5" customHeight="1">
       <c r="A38" s="75" t="s">
         <v>965</v>
       </c>
@@ -83213,7 +83213,7 @@
       <c r="Q38" s="76"/>
       <c r="R38" s="76"/>
     </row>
-    <row r="39" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A39" s="77" t="s">
         <v>966</v>
       </c>
@@ -83235,7 +83235,7 @@
       <c r="Q39" s="76"/>
       <c r="R39" s="76"/>
     </row>
-    <row r="40" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="75" t="s">
         <v>967</v>
       </c>
@@ -83257,7 +83257,7 @@
       <c r="Q40" s="76"/>
       <c r="R40" s="76"/>
     </row>
-    <row r="41" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="41" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A41" s="75" t="s">
         <v>968</v>
       </c>
@@ -83279,7 +83279,7 @@
       <c r="Q41" s="76"/>
       <c r="R41" s="76"/>
     </row>
-    <row r="42" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="42" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A42" s="75" t="s">
         <v>969</v>
       </c>
@@ -83301,7 +83301,7 @@
       <c r="Q42" s="76"/>
       <c r="R42" s="76"/>
     </row>
-    <row r="43" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="43" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="77" t="s">
         <v>970</v>
       </c>
@@ -83323,7 +83323,7 @@
       <c r="Q43" s="76"/>
       <c r="R43" s="76"/>
     </row>
-    <row r="44" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="44" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A44" s="77" t="s">
         <v>971</v>
       </c>
@@ -83345,7 +83345,7 @@
       <c r="Q44" s="76"/>
       <c r="R44" s="76"/>
     </row>
-    <row r="45" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="45" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="78" t="s">
         <v>972</v>
       </c>
@@ -83367,7 +83367,7 @@
       <c r="Q45" s="76"/>
       <c r="R45" s="76"/>
     </row>
-    <row r="46" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="46" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="75" t="s">
         <v>973</v>
       </c>
@@ -83389,7 +83389,7 @@
       <c r="Q46" s="76"/>
       <c r="R46" s="76"/>
     </row>
-    <row r="47" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="47" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A47" s="75" t="s">
         <v>974</v>
       </c>
@@ -83411,7 +83411,7 @@
       <c r="Q47" s="76"/>
       <c r="R47" s="76"/>
     </row>
-    <row r="48" spans="1:35" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="48" spans="1:35" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A48" s="75" t="s">
         <v>975</v>
       </c>
@@ -83433,7 +83433,7 @@
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
     </row>
-    <row r="49" spans="1:18" s="69" customFormat="1" ht="25.5" customHeight="1">
+    <row r="49" spans="1:18" s="70" customFormat="1" ht="25.5" customHeight="1">
       <c r="A49" s="75" t="s">
         <v>976</v>
       </c>
@@ -83455,7 +83455,7 @@
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
     </row>
-    <row r="50" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="50" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A50" s="75" t="s">
         <v>977</v>
       </c>
@@ -83475,7 +83475,7 @@
       <c r="O50" s="76"/>
       <c r="P50" s="76"/>
     </row>
-    <row r="51" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="51" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A51" s="98"/>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
@@ -83493,7 +83493,7 @@
       <c r="O51" s="76"/>
       <c r="P51" s="76"/>
     </row>
-    <row r="52" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="52" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A52" s="87" t="s">
         <v>978</v>
       </c>
@@ -83513,7 +83513,7 @@
       <c r="O52" s="76"/>
       <c r="P52" s="76"/>
     </row>
-    <row r="53" spans="1:18" s="69" customFormat="1" ht="38.25" customHeight="1">
+    <row r="53" spans="1:18" s="70" customFormat="1" ht="38.25" customHeight="1">
       <c r="A53" s="78" t="s">
         <v>979</v>
       </c>
@@ -83533,7 +83533,7 @@
       <c r="O53" s="76"/>
       <c r="P53" s="76"/>
     </row>
-    <row r="54" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="54" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A54" s="80" t="s">
         <v>980</v>
       </c>
@@ -83553,7 +83553,7 @@
       <c r="O54" s="76"/>
       <c r="P54" s="76"/>
     </row>
-    <row r="55" spans="1:18" s="69" customFormat="1" ht="38.25" customHeight="1">
+    <row r="55" spans="1:18" s="70" customFormat="1" ht="38.25" customHeight="1">
       <c r="A55" s="99" t="s">
         <v>981</v>
       </c>
@@ -83573,7 +83573,7 @@
       <c r="O55" s="76"/>
       <c r="P55" s="76"/>
     </row>
-    <row r="56" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="56" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A56" s="80" t="s">
         <v>982</v>
       </c>
@@ -83593,7 +83593,7 @@
       <c r="O56" s="76"/>
       <c r="P56" s="76"/>
     </row>
-    <row r="57" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="57" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A57" s="80" t="s">
         <v>983</v>
       </c>
@@ -83613,7 +83613,7 @@
       <c r="O57" s="76"/>
       <c r="P57" s="76"/>
     </row>
-    <row r="58" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="58" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A58" s="88" t="s">
         <v>984</v>
       </c>
@@ -83633,7 +83633,7 @@
       <c r="O58" s="76"/>
       <c r="P58" s="76"/>
     </row>
-    <row r="59" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="59" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A59" s="100"/>
       <c r="B59" s="76"/>
       <c r="C59" s="76"/>
@@ -83651,7 +83651,7 @@
       <c r="O59" s="76"/>
       <c r="P59" s="76"/>
     </row>
-    <row r="60" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="60" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A60" s="89" t="s">
         <v>985</v>
       </c>
@@ -83671,7 +83671,7 @@
       <c r="O60" s="76"/>
       <c r="P60" s="76"/>
     </row>
-    <row r="61" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="61" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A61" s="89" t="s">
         <v>986</v>
       </c>
@@ -83691,7 +83691,7 @@
       <c r="O61" s="76"/>
       <c r="P61" s="76"/>
     </row>
-    <row r="62" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="62" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A62" s="83" t="s">
         <v>987</v>
       </c>
@@ -83711,7 +83711,7 @@
       <c r="O62" s="76"/>
       <c r="P62" s="76"/>
     </row>
-    <row r="63" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="63" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A63" s="90" t="s">
         <v>988</v>
       </c>
@@ -83731,7 +83731,7 @@
       <c r="O63" s="76"/>
       <c r="P63" s="76"/>
     </row>
-    <row r="64" spans="1:18" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="64" spans="1:18" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A64" s="79" t="s">
         <v>989</v>
       </c>
@@ -83751,7 +83751,7 @@
       <c r="O64" s="76"/>
       <c r="P64" s="76"/>
     </row>
-    <row r="65" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="65" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A65" s="79" t="s">
         <v>990</v>
       </c>
@@ -83771,7 +83771,7 @@
       <c r="O65" s="76"/>
       <c r="P65" s="76"/>
     </row>
-    <row r="66" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="66" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="79" t="s">
         <v>991</v>
       </c>
@@ -83791,7 +83791,7 @@
       <c r="O66" s="76"/>
       <c r="P66" s="76"/>
     </row>
-    <row r="67" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="67" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="79" t="s">
         <v>992</v>
       </c>
@@ -83811,7 +83811,7 @@
       <c r="O67" s="76"/>
       <c r="P67" s="76"/>
     </row>
-    <row r="68" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="68" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A68" s="83" t="s">
         <v>993</v>
       </c>
@@ -83831,7 +83831,7 @@
       <c r="O68" s="76"/>
       <c r="P68" s="76"/>
     </row>
-    <row r="69" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="69" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A69" s="79" t="s">
         <v>994</v>
       </c>
@@ -83851,7 +83851,7 @@
       <c r="O69" s="76"/>
       <c r="P69" s="76"/>
     </row>
-    <row r="70" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="70" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A70" s="79" t="s">
         <v>995</v>
       </c>
@@ -83871,7 +83871,7 @@
       <c r="O70" s="76"/>
       <c r="P70" s="76"/>
     </row>
-    <row r="71" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="71" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="79" t="s">
         <v>996</v>
       </c>
@@ -83891,7 +83891,7 @@
       <c r="O71" s="76"/>
       <c r="P71" s="76"/>
     </row>
-    <row r="72" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="72" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="79" t="s">
         <v>997</v>
       </c>
@@ -83911,7 +83911,7 @@
       <c r="O72" s="76"/>
       <c r="P72" s="76"/>
     </row>
-    <row r="73" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="73" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A73" s="79" t="s">
         <v>998</v>
       </c>
@@ -83931,7 +83931,7 @@
       <c r="O73" s="76"/>
       <c r="P73" s="76"/>
     </row>
-    <row r="74" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="74" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A74" s="85" t="s">
         <v>999</v>
       </c>
@@ -83951,7 +83951,7 @@
       <c r="O74" s="76"/>
       <c r="P74" s="76"/>
     </row>
-    <row r="75" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="75" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A75" s="83" t="s">
         <v>1000</v>
       </c>
@@ -83971,7 +83971,7 @@
       <c r="O75" s="76"/>
       <c r="P75" s="76"/>
     </row>
-    <row r="76" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="76" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A76" s="80" t="s">
         <v>1001</v>
       </c>
@@ -83991,7 +83991,7 @@
       <c r="O76" s="76"/>
       <c r="P76" s="76"/>
     </row>
-    <row r="77" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="77" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="84" t="s">
         <v>1002</v>
       </c>
@@ -84011,7 +84011,7 @@
       <c r="O77" s="76"/>
       <c r="P77" s="76"/>
     </row>
-    <row r="78" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="78" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A78" s="86" t="s">
         <v>1003</v>
       </c>
@@ -84031,7 +84031,7 @@
       <c r="O78" s="76"/>
       <c r="P78" s="76"/>
     </row>
-    <row r="79" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="79" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A79" s="84" t="s">
         <v>1004</v>
       </c>
@@ -84051,7 +84051,7 @@
       <c r="O79" s="76"/>
       <c r="P79" s="76"/>
     </row>
-    <row r="80" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="80" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A80" s="83" t="s">
         <v>1005</v>
       </c>
@@ -84071,7 +84071,7 @@
       <c r="O80" s="76"/>
       <c r="P80" s="76"/>
     </row>
-    <row r="81" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="81" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A81" s="80" t="s">
         <v>1006</v>
       </c>
@@ -84091,7 +84091,7 @@
       <c r="O81" s="76"/>
       <c r="P81" s="76"/>
     </row>
-    <row r="82" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="82" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="84" t="s">
         <v>1007</v>
       </c>
@@ -84111,7 +84111,7 @@
       <c r="O82" s="76"/>
       <c r="P82" s="76"/>
     </row>
-    <row r="83" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="83" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A83" s="83" t="s">
         <v>1008</v>
       </c>
@@ -84131,7 +84131,7 @@
       <c r="O83" s="76"/>
       <c r="P83" s="76"/>
     </row>
-    <row r="84" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="84" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A84" s="80" t="s">
         <v>1009</v>
       </c>
@@ -84151,7 +84151,7 @@
       <c r="O84" s="76"/>
       <c r="P84" s="76"/>
     </row>
-    <row r="85" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="85" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A85" s="84" t="s">
         <v>1002</v>
       </c>
@@ -84171,7 +84171,7 @@
       <c r="O85" s="76"/>
       <c r="P85" s="76"/>
     </row>
-    <row r="86" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="86" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A86" s="86" t="s">
         <v>1010</v>
       </c>
@@ -84191,7 +84191,7 @@
       <c r="O86" s="76"/>
       <c r="P86" s="76"/>
     </row>
-    <row r="87" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="87" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="84" t="s">
         <v>1004</v>
       </c>
@@ -84211,7 +84211,7 @@
       <c r="O87" s="76"/>
       <c r="P87" s="76"/>
     </row>
-    <row r="88" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="88" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="83" t="s">
         <v>1011</v>
       </c>
@@ -84231,7 +84231,7 @@
       <c r="O88" s="76"/>
       <c r="P88" s="76"/>
     </row>
-    <row r="89" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="89" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A89" s="80" t="s">
         <v>1012</v>
       </c>
@@ -84251,7 +84251,7 @@
       <c r="O89" s="76"/>
       <c r="P89" s="76"/>
     </row>
-    <row r="90" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="90" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A90" s="84" t="s">
         <v>1007</v>
       </c>
@@ -84271,7 +84271,7 @@
       <c r="O90" s="76"/>
       <c r="P90" s="76"/>
     </row>
-    <row r="91" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="91" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A91" s="85" t="s">
         <v>1013</v>
       </c>
@@ -84291,7 +84291,7 @@
       <c r="O91" s="76"/>
       <c r="P91" s="76"/>
     </row>
-    <row r="92" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="92" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="79" t="s">
         <v>1014</v>
       </c>
@@ -84311,7 +84311,7 @@
       <c r="O92" s="76"/>
       <c r="P92" s="76"/>
     </row>
-    <row r="93" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="93" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="79" t="s">
         <v>1015</v>
       </c>
@@ -84331,7 +84331,7 @@
       <c r="O93" s="76"/>
       <c r="P93" s="76"/>
     </row>
-    <row r="94" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="94" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="79" t="s">
         <v>1016</v>
       </c>
@@ -84351,7 +84351,7 @@
       <c r="O94" s="76"/>
       <c r="P94" s="76"/>
     </row>
-    <row r="95" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="95" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A95" s="85" t="s">
         <v>1017</v>
       </c>
@@ -84371,7 +84371,7 @@
       <c r="O95" s="76"/>
       <c r="P95" s="76"/>
     </row>
-    <row r="96" spans="1:16" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="96" spans="1:16" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A96" s="79" t="s">
         <v>1018</v>
       </c>
@@ -84391,7 +84391,7 @@
       <c r="O96" s="76"/>
       <c r="P96" s="76"/>
     </row>
-    <row r="97" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
+    <row r="97" spans="1:20" s="71" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="79" t="s">
         <v>1018</v>
       </c>
@@ -84411,7 +84411,7 @@
       <c r="O97" s="91"/>
       <c r="P97" s="91"/>
     </row>
-    <row r="98" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="98" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="85" t="s">
         <v>1019</v>
       </c>
@@ -84431,7 +84431,7 @@
       <c r="O98" s="76"/>
       <c r="P98" s="76"/>
     </row>
-    <row r="99" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="99" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="83" t="s">
         <v>1020</v>
       </c>
@@ -84451,7 +84451,7 @@
       <c r="O99" s="76"/>
       <c r="P99" s="76"/>
     </row>
-    <row r="100" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="100" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="79" t="s">
         <v>1021</v>
       </c>
@@ -84471,7 +84471,7 @@
       <c r="O100" s="76"/>
       <c r="P100" s="76"/>
     </row>
-    <row r="101" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="101" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A101" s="79" t="s">
         <v>1022</v>
       </c>
@@ -84491,7 +84491,7 @@
       <c r="O101" s="76"/>
       <c r="P101" s="76"/>
     </row>
-    <row r="102" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="102" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A102" s="79" t="s">
         <v>1023</v>
       </c>
@@ -84511,7 +84511,7 @@
       <c r="O102" s="76"/>
       <c r="P102" s="76"/>
     </row>
-    <row r="103" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="103" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A103" s="85" t="s">
         <v>1024</v>
       </c>
@@ -84531,7 +84531,7 @@
       <c r="O103" s="76"/>
       <c r="P103" s="76"/>
     </row>
-    <row r="104" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="104" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A104" s="83" t="s">
         <v>1025</v>
       </c>
@@ -84551,7 +84551,7 @@
       <c r="O104" s="76"/>
       <c r="P104" s="76"/>
     </row>
-    <row r="105" spans="1:20" s="69" customFormat="1" ht="23.25" customHeight="1">
+    <row r="105" spans="1:20" s="70" customFormat="1" ht="23.25" customHeight="1">
       <c r="A105" s="80" t="s">
         <v>1026</v>
       </c>
@@ -84571,7 +84571,7 @@
       <c r="O105" s="76"/>
       <c r="P105" s="76"/>
     </row>
-    <row r="106" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="106" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A106" s="80" t="s">
         <v>1027</v>
       </c>
@@ -84591,7 +84591,7 @@
       <c r="O106" s="76"/>
       <c r="P106" s="76"/>
     </row>
-    <row r="107" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="107" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A107" s="83" t="s">
         <v>1028</v>
       </c>
@@ -84611,7 +84611,7 @@
       <c r="O107" s="76"/>
       <c r="P107" s="76"/>
     </row>
-    <row r="108" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="108" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="81" t="s">
         <v>1029</v>
       </c>
@@ -84631,7 +84631,7 @@
       <c r="O108" s="76"/>
       <c r="P108" s="76"/>
     </row>
-    <row r="109" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="109" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="82" t="s">
         <v>1030</v>
       </c>
@@ -84651,7 +84651,7 @@
       <c r="O109" s="76"/>
       <c r="P109" s="76"/>
     </row>
-    <row r="110" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="110" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A110" s="83" t="s">
         <v>1031</v>
       </c>
@@ -84671,7 +84671,7 @@
       <c r="O110" s="76"/>
       <c r="P110" s="76"/>
     </row>
-    <row r="111" spans="1:20" s="69" customFormat="1" ht="12.75" customHeight="1">
+    <row r="111" spans="1:20" s="70" customFormat="1" ht="12.75" customHeight="1">
       <c r="A111" s="79" t="s">
         <v>1032</v>
       </c>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/junshepard/library/containers/com.microsoft.excel/data/state-eps-data-repository/mn/trans/syvbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846A430-E998-A74B-A2F2-596EE06A205B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A0B32-7816-974F-9D0F-640E04518890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="2260" windowWidth="16360" windowHeight="14480" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11320" yWindow="2260" windowWidth="16360" windowHeight="14480" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="0" yWindow="680" windowWidth="19700" windowHeight="11580" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
@@ -6075,7 +6075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
@@ -6667,7 +6667,7 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
     <sheetView workbookViewId="1">
